--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H2">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I2">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J2">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>18.91264038793964</v>
+        <v>19.2791787676755</v>
       </c>
       <c r="R2">
-        <v>18.91264038793964</v>
+        <v>77.116715070702</v>
       </c>
       <c r="S2">
-        <v>0.002225309718596863</v>
+        <v>0.002070565719757581</v>
       </c>
       <c r="T2">
-        <v>0.002225309718596863</v>
+        <v>0.0012127390810745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H3">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I3">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J3">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>240.3517873659382</v>
+        <v>252.6759065243825</v>
       </c>
       <c r="R3">
-        <v>240.3517873659382</v>
+        <v>1516.055439146295</v>
       </c>
       <c r="S3">
-        <v>0.02828040703658813</v>
+        <v>0.02713715540286665</v>
       </c>
       <c r="T3">
-        <v>0.02828040703658813</v>
+        <v>0.02384151968146766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H4">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I4">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J4">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>640.8578292148171</v>
+        <v>658.9652120459696</v>
       </c>
       <c r="R4">
-        <v>640.8578292148171</v>
+        <v>3953.791272275818</v>
       </c>
       <c r="S4">
-        <v>0.07540497394007623</v>
+        <v>0.07077224580036819</v>
       </c>
       <c r="T4">
-        <v>0.07540497394007623</v>
+        <v>0.06217740459904297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H5">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I5">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J5">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>765.1966815195508</v>
+        <v>770.4063280419791</v>
       </c>
       <c r="R5">
-        <v>765.1966815195508</v>
+        <v>4622.437968251875</v>
       </c>
       <c r="S5">
-        <v>0.09003500183450747</v>
+        <v>0.08274091714957246</v>
       </c>
       <c r="T5">
-        <v>0.09003500183450747</v>
+        <v>0.07269255658519878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H6">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I6">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J6">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>24.83624470725453</v>
+        <v>25.9051870308265</v>
       </c>
       <c r="R6">
-        <v>24.83624470725453</v>
+        <v>155.431122184959</v>
       </c>
       <c r="S6">
-        <v>0.002922296177943898</v>
+        <v>0.00278219279339175</v>
       </c>
       <c r="T6">
-        <v>0.002922296177943898</v>
+        <v>0.002444313092384028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H7">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I7">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J7">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>416.4309326727594</v>
+        <v>450.2899754993446</v>
       </c>
       <c r="R7">
-        <v>416.4309326727594</v>
+        <v>1801.159901997378</v>
       </c>
       <c r="S7">
-        <v>0.04899833035433727</v>
+        <v>0.04836072108956528</v>
       </c>
       <c r="T7">
-        <v>0.04899833035433727</v>
+        <v>0.02832507845301628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H8">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J8">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>8.038513188956443</v>
+        <v>8.833223948779999</v>
       </c>
       <c r="R8">
-        <v>8.038513188956443</v>
+        <v>52.99934369267999</v>
       </c>
       <c r="S8">
-        <v>0.0009458320549393471</v>
+        <v>0.0009486799683579448</v>
       </c>
       <c r="T8">
-        <v>0.0009458320549393471</v>
+        <v>0.0008334687921870687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H9">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J9">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>102.1576561019162</v>
+        <v>115.7696028283667</v>
       </c>
       <c r="R9">
-        <v>102.1576561019162</v>
+        <v>1041.9264254553</v>
       </c>
       <c r="S9">
-        <v>0.01202013152524369</v>
+        <v>0.01243354677577213</v>
       </c>
       <c r="T9">
-        <v>0.01202013152524369</v>
+        <v>0.01638535685286155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H10">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J10">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>272.3862986193287</v>
+        <v>301.9209149207533</v>
       </c>
       <c r="R10">
-        <v>272.3862986193287</v>
+        <v>2717.28823428678</v>
       </c>
       <c r="S10">
-        <v>0.03204966969692662</v>
+        <v>0.03242602312298239</v>
       </c>
       <c r="T10">
-        <v>0.03204966969692662</v>
+        <v>0.04273213185030317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H11">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J11">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>325.234525183647</v>
+        <v>352.9803685705733</v>
       </c>
       <c r="R11">
-        <v>325.234525183647</v>
+        <v>3176.82331713516</v>
       </c>
       <c r="S11">
-        <v>0.03826792742148954</v>
+        <v>0.03790976056174339</v>
       </c>
       <c r="T11">
-        <v>0.03826792742148954</v>
+        <v>0.04995879021592597</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H12">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J12">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>10.55624579901214</v>
+        <v>11.86909054767333</v>
       </c>
       <c r="R12">
-        <v>10.55624579901214</v>
+        <v>106.82181492906</v>
       </c>
       <c r="S12">
-        <v>0.001242074923785835</v>
+        <v>0.001274729194062774</v>
       </c>
       <c r="T12">
-        <v>0.001242074923785835</v>
+        <v>0.001679882105416543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H13">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J13">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N13">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O13">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P13">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q13">
-        <v>176.9972608750104</v>
+        <v>206.31128760242</v>
       </c>
       <c r="R13">
-        <v>176.9972608750104</v>
+        <v>1237.86772561452</v>
       </c>
       <c r="S13">
-        <v>0.02082595114753799</v>
+        <v>0.02215763881109151</v>
       </c>
       <c r="T13">
-        <v>0.02082595114753799</v>
+        <v>0.01946673385500403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H14">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I14">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J14">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N14">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O14">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P14">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q14">
-        <v>6.642236769611746</v>
+        <v>10.13603292556967</v>
       </c>
       <c r="R14">
-        <v>6.642236769611746</v>
+        <v>60.81619755341799</v>
       </c>
       <c r="S14">
-        <v>0.0007815425944472642</v>
+        <v>0.001088600430699214</v>
       </c>
       <c r="T14">
-        <v>0.0007815425944472642</v>
+        <v>0.0009563968001977032</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H15">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I15">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J15">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N15">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P15">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q15">
-        <v>84.41304053462522</v>
+        <v>132.8444193029339</v>
       </c>
       <c r="R15">
-        <v>84.41304053462522</v>
+        <v>1195.599773726405</v>
       </c>
       <c r="S15">
-        <v>0.00993225459929958</v>
+        <v>0.01426736605248677</v>
       </c>
       <c r="T15">
-        <v>0.00993225459929958</v>
+        <v>0.01880202715575345</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H16">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I16">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J16">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N16">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O16">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P16">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q16">
-        <v>225.0732499529092</v>
+        <v>346.4511204855781</v>
       </c>
       <c r="R16">
-        <v>225.0732499529092</v>
+        <v>3118.060084370203</v>
       </c>
       <c r="S16">
-        <v>0.02648269518389303</v>
+        <v>0.03720852544050208</v>
       </c>
       <c r="T16">
-        <v>0.02648269518389303</v>
+        <v>0.0490346783831151</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H17">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I17">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J17">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N17">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O17">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P17">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q17">
-        <v>268.7418271440922</v>
+        <v>405.0413143216185</v>
       </c>
       <c r="R17">
-        <v>268.7418271440922</v>
+        <v>3645.371828894567</v>
       </c>
       <c r="S17">
-        <v>0.03162085184671441</v>
+        <v>0.04350105731298307</v>
       </c>
       <c r="T17">
-        <v>0.03162085184671441</v>
+        <v>0.05732719395393487</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H18">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I18">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J18">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N18">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O18">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P18">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q18">
-        <v>8.722643397735169</v>
+        <v>13.61965838128678</v>
       </c>
       <c r="R18">
-        <v>8.722643397735169</v>
+        <v>122.576925431581</v>
       </c>
       <c r="S18">
-        <v>0.001026328567914437</v>
+        <v>0.001462738537721519</v>
       </c>
       <c r="T18">
-        <v>0.001026328567914437</v>
+        <v>0.001927647304122648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.35154521840063</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H19">
-        <v>5.35154521840063</v>
+        <v>24.073667</v>
       </c>
       <c r="I19">
-        <v>0.08705219073864195</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J19">
-        <v>0.08705219073864195</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N19">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O19">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P19">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q19">
-        <v>146.2531299842502</v>
+        <v>236.7400641238837</v>
       </c>
       <c r="R19">
-        <v>146.2531299842502</v>
+        <v>1420.440384743302</v>
       </c>
       <c r="S19">
-        <v>0.01720851794637323</v>
+        <v>0.02542566087358434</v>
       </c>
       <c r="T19">
-        <v>0.01720851794637323</v>
+        <v>0.02233787532748729</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H20">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I20">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J20">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N20">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O20">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P20">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q20">
-        <v>2.45222105823598</v>
+        <v>2.619831500668</v>
       </c>
       <c r="R20">
-        <v>2.45222105823598</v>
+        <v>15.718989004008</v>
       </c>
       <c r="S20">
-        <v>0.0002885346118313677</v>
+        <v>0.0002813674463104871</v>
       </c>
       <c r="T20">
-        <v>0.0002885346118313677</v>
+        <v>0.0002471971512617401</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H21">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I21">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J21">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N21">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P21">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q21">
-        <v>31.16411575928133</v>
+        <v>34.33591790135333</v>
       </c>
       <c r="R21">
-        <v>31.16411575928133</v>
+        <v>309.02326111218</v>
       </c>
       <c r="S21">
-        <v>0.003666849696715533</v>
+        <v>0.003687645382600744</v>
       </c>
       <c r="T21">
-        <v>0.003666849696715533</v>
+        <v>0.004859706295428164</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H22">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I22">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J22">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N22">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O22">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P22">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q22">
-        <v>83.09390079336116</v>
+        <v>89.54623229371867</v>
       </c>
       <c r="R22">
-        <v>83.09390079336116</v>
+        <v>805.9160906434681</v>
       </c>
       <c r="S22">
-        <v>0.009777041237959817</v>
+        <v>0.009617181372460414</v>
       </c>
       <c r="T22">
-        <v>0.009777041237959817</v>
+        <v>0.01267385337010331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H23">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I23">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J23">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N23">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O23">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P23">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q23">
-        <v>99.21572967205101</v>
+        <v>104.6898724702107</v>
       </c>
       <c r="R23">
-        <v>99.21572967205101</v>
+        <v>942.2088522318961</v>
       </c>
       <c r="S23">
-        <v>0.01167397692485533</v>
+        <v>0.01124359412580657</v>
       </c>
       <c r="T23">
-        <v>0.01167397692485533</v>
+        <v>0.01481719620173608</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H24">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I24">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J24">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N24">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O24">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P24">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q24">
-        <v>3.220278133003004</v>
+        <v>3.520234229470667</v>
       </c>
       <c r="R24">
-        <v>3.220278133003004</v>
+        <v>31.682108065236</v>
       </c>
       <c r="S24">
-        <v>0.0003789061748631508</v>
+        <v>0.0003780698549919627</v>
       </c>
       <c r="T24">
-        <v>0.0003789061748631508</v>
+        <v>0.0004982334969313878</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.97571576169983</v>
+        <v>2.074084</v>
       </c>
       <c r="H25">
-        <v>1.97571576169983</v>
+        <v>6.222252</v>
       </c>
       <c r="I25">
-        <v>0.0321384531595598</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J25">
-        <v>0.0321384531595598</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N25">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O25">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P25">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q25">
-        <v>53.99461320335709</v>
+        <v>61.189528686052</v>
       </c>
       <c r="R25">
-        <v>53.99461320335709</v>
+        <v>367.137172116312</v>
       </c>
       <c r="S25">
-        <v>0.006353144513334599</v>
+        <v>0.006571697997732624</v>
       </c>
       <c r="T25">
-        <v>0.006353144513334599</v>
+        <v>0.005773606880589004</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H26">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I26">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J26">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N26">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O26">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P26">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q26">
-        <v>14.96266447497779</v>
+        <v>15.736211740653</v>
       </c>
       <c r="R26">
-        <v>14.96266447497779</v>
+        <v>94.417270443918</v>
       </c>
       <c r="S26">
-        <v>0.001760545433598205</v>
+        <v>0.001690054383627223</v>
       </c>
       <c r="T26">
-        <v>0.001760545433598205</v>
+        <v>0.001484807978279946</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H27">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I27">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J27">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N27">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P27">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q27">
-        <v>190.1534146766233</v>
+        <v>206.241231265295</v>
       </c>
       <c r="R27">
-        <v>190.1534146766233</v>
+        <v>1856.171081387655</v>
       </c>
       <c r="S27">
-        <v>0.02237393790737474</v>
+        <v>0.02215011482618267</v>
       </c>
       <c r="T27">
-        <v>0.02237393790737474</v>
+        <v>0.0291901854156433</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H28">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I28">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J28">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N28">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O28">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P28">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q28">
-        <v>507.0122668233401</v>
+        <v>537.866069475217</v>
       </c>
       <c r="R28">
-        <v>507.0122668233401</v>
+        <v>4840.794625276953</v>
       </c>
       <c r="S28">
-        <v>0.05965636218247358</v>
+        <v>0.05776631145427216</v>
       </c>
       <c r="T28">
-        <v>0.05965636218247358</v>
+        <v>0.07612643796025881</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H29">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I29">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J29">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N29">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O29">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P29">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q29">
-        <v>605.382483254142</v>
+        <v>628.8274646186741</v>
       </c>
       <c r="R29">
-        <v>605.382483254142</v>
+        <v>5659.447181568066</v>
       </c>
       <c r="S29">
-        <v>0.07123085385332105</v>
+        <v>0.06753547998966376</v>
       </c>
       <c r="T29">
-        <v>0.07123085385332105</v>
+        <v>0.08900058525667238</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H30">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I30">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J30">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N30">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O30">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P30">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q30">
-        <v>19.6491018044243</v>
+        <v>21.144547348759</v>
       </c>
       <c r="R30">
-        <v>19.6491018044243</v>
+        <v>190.300926138831</v>
       </c>
       <c r="S30">
-        <v>0.002311963655533136</v>
+        <v>0.002270904556035202</v>
       </c>
       <c r="T30">
-        <v>0.002311963655533136</v>
+        <v>0.002992676361819147</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.0551823584393</v>
+        <v>12.458139</v>
       </c>
       <c r="H31">
-        <v>12.0551823584393</v>
+        <v>37.374417</v>
       </c>
       <c r="I31">
-        <v>0.1960985082304142</v>
+        <v>0.190886255449412</v>
       </c>
       <c r="J31">
-        <v>0.1960985082304142</v>
+        <v>0.233474289869296</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N31">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O31">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P31">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q31">
-        <v>329.4577697653442</v>
+        <v>367.539431245467</v>
       </c>
       <c r="R31">
-        <v>329.4577697653442</v>
+        <v>2205.236587472802</v>
       </c>
       <c r="S31">
-        <v>0.03876484519811344</v>
+        <v>0.03947339023963094</v>
       </c>
       <c r="T31">
-        <v>0.03876484519811344</v>
+        <v>0.03467959689662242</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H32">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I32">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J32">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N32">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O32">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P32">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q32">
-        <v>25.29350025310233</v>
+        <v>25.83315762225</v>
       </c>
       <c r="R32">
-        <v>25.29350025310233</v>
+        <v>103.332630489</v>
       </c>
       <c r="S32">
-        <v>0.002976098036869228</v>
+        <v>0.002774456902459353</v>
       </c>
       <c r="T32">
-        <v>0.002976098036869228</v>
+        <v>0.00162501111762021</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H33">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I33">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J33">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N33">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P33">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q33">
-        <v>321.4431126417797</v>
+        <v>338.57336970875</v>
       </c>
       <c r="R33">
-        <v>321.4431126417797</v>
+        <v>2031.4402182525</v>
       </c>
       <c r="S33">
-        <v>0.03782182010894278</v>
+        <v>0.03636246239477513</v>
       </c>
       <c r="T33">
-        <v>0.03782182010894278</v>
+        <v>0.03194647154358999</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H34">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I34">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J34">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N34">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O34">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P34">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q34">
-        <v>857.0742811661671</v>
+        <v>882.9811889552501</v>
       </c>
       <c r="R34">
-        <v>857.0742811661671</v>
+        <v>5297.8871337315</v>
       </c>
       <c r="S34">
-        <v>0.1008455555816905</v>
+        <v>0.09483135163967191</v>
       </c>
       <c r="T34">
-        <v>0.1008455555816905</v>
+        <v>0.08331468434965678</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H35">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I35">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J35">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N35">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O35">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P35">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q35">
-        <v>1023.363320016911</v>
+        <v>1032.3068396905</v>
       </c>
       <c r="R35">
-        <v>1023.363320016911</v>
+        <v>6193.841038143</v>
       </c>
       <c r="S35">
-        <v>0.1204115498934453</v>
+        <v>0.1108687864919958</v>
       </c>
       <c r="T35">
-        <v>0.1204115498934453</v>
+        <v>0.09740447427036251</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H36">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I36">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J36">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N36">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O36">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P36">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q36">
-        <v>33.21564566889595</v>
+        <v>34.71168496675</v>
       </c>
       <c r="R36">
-        <v>33.21564566889595</v>
+        <v>208.2701098005</v>
       </c>
       <c r="S36">
-        <v>0.003908237961506354</v>
+        <v>0.003728002413032391</v>
       </c>
       <c r="T36">
-        <v>0.003908237961506354</v>
+        <v>0.003275260121533654</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3785735183928</v>
+        <v>20.45175</v>
       </c>
       <c r="H37">
-        <v>20.3785735183928</v>
+        <v>40.9035</v>
       </c>
       <c r="I37">
-        <v>0.3314929420394111</v>
+        <v>0.3133660633331761</v>
       </c>
       <c r="J37">
-        <v>0.3314929420394111</v>
+        <v>0.2555201226461606</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N37">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O37">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P37">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q37">
-        <v>556.928894374518</v>
+        <v>603.36656726775</v>
       </c>
       <c r="R37">
-        <v>556.928894374518</v>
+        <v>2413.466269071</v>
       </c>
       <c r="S37">
-        <v>0.06552968045695685</v>
+        <v>0.06480100349124152</v>
       </c>
       <c r="T37">
-        <v>0.06552968045695685</v>
+        <v>0.03795422124339746</v>
       </c>
     </row>
   </sheetData>
